--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\Desktop\Coding\RahulShetty_cypress\cypressAutomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F60A64-2990-4524-81C9-452E0D0A15FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76A3BB6-3FC9-4B81-8701-5CAA762DB92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -133,6 +133,99 @@
   </si>
   <si>
     <t xml:space="preserve">is not a cypress command, text() is jQuery method, cypress also supports jQuery </t>
+  </si>
+  <si>
+    <t>cy.get(L).as('anyName')</t>
+  </si>
+  <si>
+    <t>cy.get(@anyName).should()</t>
+  </si>
+  <si>
+    <t>as is alias</t>
+  </si>
+  <si>
+    <t>select()</t>
+  </si>
+  <si>
+    <t>for any static dropdown select() will be the tag name</t>
+  </si>
+  <si>
+    <t>cy.get().check().should()</t>
+  </si>
+  <si>
+    <t>cy.get().uncheck()</t>
+  </si>
+  <si>
+    <t>to check any checkbox and applying assertion</t>
+  </si>
+  <si>
+    <t>to uncheck any checkbox</t>
+  </si>
+  <si>
+    <t>should('have.value','anyValue')</t>
+  </si>
+  <si>
+    <t>should('be.visible','visibleElement')</t>
+  </si>
+  <si>
+    <t>be.visible, be.a, be.NaN, be.checked, be.enabled, be.disabled, be.enabled, be.empty, be.lessthan, be.false, be.null, be.true, be.selected, be.above, be.undefined</t>
+  </si>
+  <si>
+    <t>have.attribute, have.key, have.class, have.css, have.data, have.focus, have.id, have.length, have.value, have.string</t>
+  </si>
+  <si>
+    <t>cypress has the ability to listen for browser events</t>
+  </si>
+  <si>
+    <t>alerts are automatically handled by cypress, it will accept in okay</t>
+  </si>
+  <si>
+    <t>Cypress has the ability to control over DOM and can also provide the instructions to browser</t>
+  </si>
+  <si>
+    <t>is to fire an event on browser</t>
+  </si>
+  <si>
+    <t>cypress doesn't have any assertions in it, it uses mocha framework to handle assertions like, expect(), should(), assert()</t>
+  </si>
+  <si>
+    <t>cy.on('window:alert',(str))</t>
+  </si>
+  <si>
+    <t>cypress mostly performs its all operation in same window, it doesn't work on child window, to we have to tweak to load in same page</t>
+  </si>
+  <si>
+    <t>we have 'target' attribute which is  = _blank, will open in next tab and cypress can't handle that new tab</t>
+  </si>
+  <si>
+    <t>jQuery function</t>
+  </si>
+  <si>
+    <t>invoke('removeAttr', 'target').click()</t>
+  </si>
+  <si>
+    <t>If after clicking on the button new child window is opening with new domain, then cypress doesn't allow us to work on that</t>
+  </si>
+  <si>
+    <t>cy.origin('webiste', ()=&gt;{})</t>
+  </si>
+  <si>
+    <t>Need to provide the website name which will be opened after clicking on the parent page, if domain name is differing</t>
+  </si>
+  <si>
+    <t>tr td:nth-child(2)</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>No direct support for mouseover action in cypress as they are very flacky, so we will do this by jQuery. We have invoke('show') to handle this.</t>
+  </si>
+  <si>
+    <t>cy.get().click({force:true})</t>
+  </si>
+  <si>
+    <t>cypress can handle hidden element by directly working with DOM, if we want to click an hidden element just force:true</t>
   </si>
 </sst>
 </file>
@@ -462,16 +555,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="156.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -623,6 +716,137 @@
         <v>35</v>
       </c>
     </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\Desktop\Coding\RahulShetty_cypress\cypressAutomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76A3BB6-3FC9-4B81-8701-5CAA762DB92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DAFE2-8CAA-42A0-A701-7170285D9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -226,6 +226,27 @@
   </si>
   <si>
     <t>cypress can handle hidden element by directly working with DOM, if we want to click an hidden element just force:true</t>
+  </si>
+  <si>
+    <t>.prop()</t>
+  </si>
+  <si>
+    <t>to get the properties of any element</t>
+  </si>
+  <si>
+    <t>By default cypress doesn't support frames, so we need to download iframe plugin</t>
+  </si>
+  <si>
+    <t>cy.frameLoaded(#frameID)</t>
+  </si>
+  <si>
+    <t>cy.iframe().find('Locator')</t>
+  </si>
+  <si>
+    <t>cy.get().filter(:contains("Nokia Edge"))</t>
+  </si>
+  <si>
+    <t>When handling calander always remember to get the desired values like date, month, year and click on the calander, look for the example</t>
   </si>
 </sst>
 </file>
@@ -555,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,6 +868,37 @@
         <v>66</v>
       </c>
     </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\Desktop\Coding\RahulShetty_cypress\cypressAutomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07DAFE2-8CAA-42A0-A701-7170285D9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DC174B-FA16-4C28-BA1F-A0F95A700A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyus\Desktop\Coding\RahulShetty_cypress\cypressAutomationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DC174B-FA16-4C28-BA1F-A0F95A700A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3823CC08-6500-4746-91C0-B017B237EF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>When handling calander always remember to get the desired values like date, month, year and click on the calander, look for the example</t>
+  </si>
+  <si>
+    <t>npx cypress run --record --key 0a59f746-efc0-4bd9-b3b1-72a3c7904b61</t>
+  </si>
+  <si>
+    <t>projectId: "co6yap"</t>
+  </si>
+  <si>
+    <t>cypress dashboard</t>
   </si>
 </sst>
 </file>
@@ -576,16 +585,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="156.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -899,6 +908,22 @@
         <v>73</v>
       </c>
     </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
